--- a/biology/Botanique/Brachychiton/Brachychiton.xlsx
+++ b/biology/Botanique/Brachychiton/Brachychiton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brachychiton est un genre de 31 espèces d'arbres et de grand buissons originaires pour 30 d'entre eux de l'Australie et pour 1 de Nouvelle-Guinée. Elles sont quelquefois appelées arbres-bouteilles. C'est un genre de la famille des Sterculiaceae. Les études de fossiles en Nouvelle-Galles du Sud et en Nouvelle-Zélande montrent qu'ils existaient déjà au Tertiaire, il y a 50 millions d'années.
 Ils mesurent entre 4 et 30 mètres de haut et quelques-uns perdent leurs feuilles en saison sèche. Plusieurs espèces ont un tronc pansu, bombé, utilisé pour stocker de l'eau en saison sèche. Les feuilles peuvent être simples, entières, palmées ou lobées. Elles mesurent de 4 à 20 centimètres de long et de large.
@@ -513,9 +525,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Espèces selon The Plant List[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espèces selon The Plant List :
 Brachychiton acerifolius (A.Cunn. ex G.Don) F.Muell.
 Brachychiton acuminatus Guymer
 Brachychiton albidus Guymer
